--- a/views/financeiro/relatorios/resumo_campanha_76.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_76.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>CAMPANHA 76</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>VENDA EM BOLETOS - DAILY</t>
+  </si>
+  <si>
+    <t>Eduarda</t>
   </si>
   <si>
     <t>Terezinha</t>
@@ -567,10 +570,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -649,25 +652,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="6">
-        <v>600.0</v>
+        <v>5100.0</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
+        <v>1400.0</v>
       </c>
       <c r="E8" s="6">
-        <v>600.0</v>
+        <v>3700.0</v>
       </c>
       <c r="F8" s="7">
-        <v>1.0</v>
+        <v>0.72549019607843</v>
       </c>
       <c r="G8" s="6">
-        <v>12.0</v>
+        <v>74.0</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>1400.0</v>
       </c>
       <c r="I8" s="8">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -675,19 +678,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="6">
-        <v>4650.0</v>
+        <v>8499.9</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
+        <v>7949.9</v>
       </c>
       <c r="E9" s="6">
-        <v>4650.0</v>
+        <v>550.0</v>
       </c>
       <c r="F9" s="7">
-        <v>1.0</v>
+        <v>0.064706643607572</v>
       </c>
       <c r="G9" s="6">
-        <v>93.0</v>
+        <v>11.0</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -701,19 +704,19 @@
         <v>18</v>
       </c>
       <c r="C10" s="6">
-        <v>3750.0</v>
+        <v>8370.0</v>
       </c>
       <c r="D10" s="6">
+        <v>8370.0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="6">
         <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3750.0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>75.0</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -727,25 +730,25 @@
         <v>19</v>
       </c>
       <c r="C11" s="6">
-        <v>6550.0</v>
+        <v>11850.0</v>
       </c>
       <c r="D11" s="6">
-        <v>4300.0</v>
+        <v>9100.0</v>
       </c>
       <c r="E11" s="6">
-        <v>2250.0</v>
+        <v>2750.0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.34351145038168</v>
+        <v>0.23206751054852</v>
       </c>
       <c r="G11" s="6">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="H11" s="8">
-        <v>0</v>
+        <v>2750.0</v>
       </c>
       <c r="I11" s="8">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -753,25 +756,25 @@
         <v>20</v>
       </c>
       <c r="C12" s="6">
-        <v>2950.0</v>
+        <v>8930.0</v>
       </c>
       <c r="D12" s="6">
-        <v>450.0</v>
+        <v>7430.0</v>
       </c>
       <c r="E12" s="6">
-        <v>2500.0</v>
+        <v>1500.0</v>
       </c>
       <c r="F12" s="7">
-        <v>0.84745762711864</v>
+        <v>0.16797312430011</v>
       </c>
       <c r="G12" s="6">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="H12" s="8">
-        <v>0</v>
+        <v>1500.0</v>
       </c>
       <c r="I12" s="8">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -779,25 +782,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>18500.0</v>
+        <v>42749.9</v>
       </c>
       <c r="D13" s="9">
-        <v>4750.0</v>
+        <v>34249.9</v>
       </c>
       <c r="E13" s="9">
-        <v>13750.0</v>
+        <v>8500.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.74324324324324</v>
+        <v>0.19883087445819</v>
       </c>
       <c r="G13" s="9">
-        <v>275.0</v>
+        <v>170.0</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>5650.0</v>
       </c>
       <c r="I13" s="9">
-        <v>0.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -836,25 +839,25 @@
         <v>23</v>
       </c>
       <c r="C17" s="6">
-        <v>990.0</v>
+        <v>7600.0</v>
       </c>
       <c r="D17" s="6">
-        <v>0</v>
+        <v>3960.0</v>
       </c>
       <c r="E17" s="6">
-        <v>990.0</v>
+        <v>3640.0</v>
       </c>
       <c r="F17" s="7">
-        <v>1.0</v>
+        <v>0.47894736842105</v>
       </c>
       <c r="G17" s="6">
-        <v>19.8</v>
+        <v>72.8</v>
       </c>
       <c r="H17" s="8">
-        <v>0</v>
+        <v>3640.0</v>
       </c>
       <c r="I17" s="8">
-        <v>0.0</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -862,25 +865,25 @@
         <v>24</v>
       </c>
       <c r="C18" s="6">
-        <v>10310.0</v>
+        <v>6285.0</v>
       </c>
       <c r="D18" s="6">
-        <v>9500.0</v>
+        <v>4210.0</v>
       </c>
       <c r="E18" s="6">
-        <v>810.0</v>
+        <v>2075.0</v>
       </c>
       <c r="F18" s="7">
-        <v>0.078564500484966</v>
+        <v>0.33015115354018</v>
       </c>
       <c r="G18" s="6">
-        <v>16.2</v>
+        <v>41.5</v>
       </c>
       <c r="H18" s="8">
-        <v>0</v>
+        <v>2075.0</v>
       </c>
       <c r="I18" s="8">
-        <v>0.0</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -888,25 +891,25 @@
         <v>25</v>
       </c>
       <c r="C19" s="6">
-        <v>2130.0</v>
+        <v>8930.0</v>
       </c>
       <c r="D19" s="6">
-        <v>1690.0</v>
+        <v>8230.0</v>
       </c>
       <c r="E19" s="6">
-        <v>440.0</v>
+        <v>700.0</v>
       </c>
       <c r="F19" s="7">
-        <v>0.20657276995305</v>
+        <v>0.078387458006719</v>
       </c>
       <c r="G19" s="6">
-        <v>8.8</v>
+        <v>14.0</v>
       </c>
       <c r="H19" s="8">
-        <v>0</v>
+        <v>700.0</v>
       </c>
       <c r="I19" s="8">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -914,25 +917,25 @@
         <v>21</v>
       </c>
       <c r="C20" s="9">
-        <v>13430.0</v>
+        <v>22815.0</v>
       </c>
       <c r="D20" s="9">
-        <v>11190.0</v>
+        <v>16400.0</v>
       </c>
       <c r="E20" s="9">
-        <v>2240.0</v>
+        <v>6415.0</v>
       </c>
       <c r="F20" s="10">
-        <v>0.16679076693969</v>
+        <v>0.28117466579005</v>
       </c>
       <c r="G20" s="9">
-        <v>44.8</v>
+        <v>128.3</v>
       </c>
       <c r="H20" s="9">
-        <v>0</v>
+        <v>6415.0</v>
       </c>
       <c r="I20" s="9">
-        <v>0.0</v>
+        <v>128.3</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -971,108 +974,108 @@
         <v>27</v>
       </c>
       <c r="C23" s="6">
-        <v>2310.0</v>
+        <v>690.0</v>
       </c>
       <c r="D23" s="6">
-        <v>910.0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="6">
-        <v>1400.0</v>
+        <v>690.0</v>
       </c>
       <c r="F23" s="7">
-        <v>0.60606060606061</v>
+        <v>1.0</v>
       </c>
       <c r="G23" s="6">
-        <v>28.0</v>
+        <v>13.8</v>
       </c>
       <c r="H23" s="8">
-        <v>0</v>
+        <v>690.0</v>
       </c>
       <c r="I23" s="8">
-        <v>0.0</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="6">
+        <v>12481.9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4081.9</v>
+      </c>
+      <c r="E24" s="6">
+        <v>8400.0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.67297446702826</v>
+      </c>
+      <c r="G24" s="6">
+        <v>168.0</v>
+      </c>
+      <c r="H24" s="8">
+        <v>4500.0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="9">
-        <v>2310.0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>910.0</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1400.0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0.60606060606061</v>
-      </c>
-      <c r="G24" s="9">
-        <v>28.0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="F25" s="1" t="s">
-        <v>28</v>
+      <c r="C25" s="9">
+        <v>13171.9</v>
+      </c>
+      <c r="D25" s="9">
+        <v>4081.9</v>
+      </c>
+      <c r="E25" s="9">
+        <v>9090.0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.69010545175715</v>
+      </c>
+      <c r="G25" s="9">
+        <v>181.8</v>
+      </c>
+      <c r="H25" s="9">
+        <v>5190.0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>103.8</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="6">
-        <v>18500.0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>4750.0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>13750.0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0.74324324324324</v>
-      </c>
-      <c r="G27" s="6">
-        <v>275.0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0.0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1080,25 +1083,25 @@
         <v>31</v>
       </c>
       <c r="C28" s="6">
-        <v>13430.0</v>
+        <v>42749.9</v>
       </c>
       <c r="D28" s="6">
-        <v>11190.0</v>
+        <v>34249.9</v>
       </c>
       <c r="E28" s="6">
-        <v>2240.0</v>
+        <v>8500.0</v>
       </c>
       <c r="F28" s="7">
-        <v>0.16679076693969</v>
+        <v>0.19883087445819</v>
       </c>
       <c r="G28" s="6">
-        <v>44.8</v>
+        <v>170.0</v>
       </c>
       <c r="H28" s="8">
-        <v>0</v>
+        <v>5650.0</v>
       </c>
       <c r="I28" s="8">
-        <v>0.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1106,281 +1109,324 @@
         <v>32</v>
       </c>
       <c r="C29" s="6">
-        <v>2310.0</v>
+        <v>22815.0</v>
       </c>
       <c r="D29" s="6">
-        <v>910.0</v>
+        <v>16400.0</v>
       </c>
       <c r="E29" s="6">
-        <v>1400.0</v>
+        <v>6415.0</v>
       </c>
       <c r="F29" s="7">
-        <v>0.60606060606061</v>
+        <v>0.28117466579005</v>
       </c>
       <c r="G29" s="6">
-        <v>28.0</v>
+        <v>128.3</v>
       </c>
       <c r="H29" s="8">
-        <v>0</v>
+        <v>6415.0</v>
       </c>
       <c r="I29" s="8">
-        <v>0.0</v>
+        <v>128.3</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="6">
+        <v>13171.9</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4081.9</v>
+      </c>
+      <c r="E30" s="6">
+        <v>9090.0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.69010545175715</v>
+      </c>
+      <c r="G30" s="6">
+        <v>181.8</v>
+      </c>
+      <c r="H30" s="8">
+        <v>5190.0</v>
+      </c>
+      <c r="I30" s="8">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="9">
-        <v>34240.0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>16850.0</v>
-      </c>
-      <c r="E30" s="9">
-        <v>17390.0</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0.50788551401869</v>
-      </c>
-      <c r="G30" s="9">
-        <v>347.8</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="1" t="s">
-        <v>33</v>
+      <c r="C31" s="9">
+        <v>78736.8</v>
+      </c>
+      <c r="D31" s="9">
+        <v>54731.8</v>
+      </c>
+      <c r="E31" s="9">
+        <v>24005.0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.30487649993396</v>
+      </c>
+      <c r="G31" s="9">
+        <v>480.1</v>
+      </c>
+      <c r="H31" s="9">
+        <v>17255.0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>345.1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="11" t="s">
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="12">
-        <v>600.0</v>
-      </c>
-      <c r="E34" s="13">
-        <v>0</v>
-      </c>
-      <c r="F34" s="12">
-        <v>600.0</v>
+      <c r="F34" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="12">
-        <v>4650.0</v>
+        <v>5100.0</v>
       </c>
       <c r="E35" s="13">
-        <v>0</v>
+        <v>2800.0</v>
       </c>
       <c r="F35" s="12">
-        <v>4650.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="12">
-        <v>3750.0</v>
+        <v>8499.9</v>
       </c>
       <c r="E36" s="13">
-        <v>0</v>
+        <v>7949.9</v>
       </c>
       <c r="F36" s="12">
-        <v>3750.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="12">
-        <v>6550.0</v>
+        <v>8370.0</v>
       </c>
       <c r="E37" s="13">
-        <v>4300.0</v>
+        <v>8370.0</v>
       </c>
       <c r="F37" s="12">
-        <v>2250.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="12">
+        <v>11850.0</v>
+      </c>
+      <c r="E38" s="13">
+        <v>11850.0</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="12">
-        <v>2950.0</v>
-      </c>
-      <c r="E38" s="13">
-        <v>450.0</v>
-      </c>
-      <c r="F38" s="12">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="4"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="12"/>
+      <c r="D39" s="12">
+        <v>8930.0</v>
+      </c>
+      <c r="E39" s="13">
+        <v>8930.0</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="B40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="12">
-        <v>990.0</v>
-      </c>
-      <c r="E40" s="13">
-        <v>0</v>
-      </c>
-      <c r="F40" s="12">
-        <v>990.0</v>
-      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:9">
       <c r="B41" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="12">
-        <v>10310.0</v>
+        <v>7600.0</v>
       </c>
       <c r="E41" s="13">
-        <v>9500.0</v>
+        <v>7600.0</v>
       </c>
       <c r="F41" s="12">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="12">
+        <v>6285.0</v>
+      </c>
+      <c r="E42" s="13">
+        <v>6285.0</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="12">
-        <v>2130.0</v>
-      </c>
-      <c r="E42" s="13">
-        <v>1690.0</v>
-      </c>
-      <c r="F42" s="12">
-        <v>440.0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="4"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="12"/>
+      <c r="D43" s="12">
+        <v>8930.0</v>
+      </c>
+      <c r="E43" s="13">
+        <v>8930.0</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="B44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="B45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="12">
-        <v>2310.0</v>
-      </c>
-      <c r="E44" s="13">
-        <v>910.0</v>
-      </c>
-      <c r="F44" s="12">
-        <v>1400.0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="5"/>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="12">
+        <v>690.0</v>
+      </c>
+      <c r="E45" s="13">
+        <v>690.0</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="12">
+        <v>12481.9</v>
+      </c>
+      <c r="E46" s="13">
+        <v>8581.9</v>
+      </c>
+      <c r="F46" s="12">
+        <v>3900.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" s="5"/>
+      <c r="C47" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="9">
-        <f>sum(D34:D44)</f>
-        <v>34240</v>
-      </c>
-      <c r="E45" s="9">
-        <f>sum(E34:E44)</f>
-        <v>16850</v>
-      </c>
-      <c r="F45" s="9">
-        <f>sum(F34:F44)</f>
-        <v>17390</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="D46" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="15">
-        <f>(E45/D45)</f>
-        <v>0.49211448598131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="9">
+        <f>sum(D35:D46)</f>
+        <v>78736.8</v>
+      </c>
+      <c r="E47" s="9">
+        <f>sum(E35:E46)</f>
+        <v>71986.8</v>
+      </c>
+      <c r="F47" s="9">
+        <f>sum(F35:F46)</f>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="D48" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="15">
-        <f>(F45/D45)</f>
-        <v>0.50788551401869</v>
+      <c r="E48" s="15">
+        <f>(E47/D47)</f>
+        <v>0.91427134453013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="D49" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="15">
+        <f>(F47/D47)</f>
+        <v>0.085728655469869</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
